--- a/py/CourseReqsParsed1.xlsx
+++ b/py/CourseReqsParsed1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Grace/Desktop/SENIOR PROJ/scheduling/py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6ED6C-CB65-E548-84C1-3EEF68D008FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1175085-D4AC-E74B-BCB0-187B9A5EE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16600" activeTab="3" xr2:uid="{660C6E79-7610-B243-80E1-D564AB1DE7CD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27640" windowHeight="16600" xr2:uid="{660C6E79-7610-B243-80E1-D564AB1DE7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -2078,10 +2078,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDB85B7-6B3D-0A4C-BFF3-CA2FF8D2CAF0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K892"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A870" workbookViewId="0">
       <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
@@ -2113,7 +2112,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>117</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>163</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>117</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>117</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>45</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>94</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>110</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>89</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>117</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>89</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>158</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>159</v>
       </c>
@@ -4999,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>184</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>76</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>94</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>158</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>160</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>89</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>115</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>45</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>115</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>117</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>156</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>158</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>110</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="4" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>163</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>115</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>117</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>110</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>89</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>115</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>107</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>155</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>94</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>115</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>157</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>158</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>159</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>160</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>110</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>94</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>115</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>157</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>159</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>160</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -7015,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>163</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>94</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>117</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>156</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>157</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>158</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>160</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>184</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>177</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>110</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>117</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>115</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>156</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>160</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>187</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>115</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>156</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>157</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>158</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>160</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>173</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>175</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>176</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>163</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>115</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>117</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>156</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>159</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>187</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>76</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>45</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>117</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>115</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>157</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>159</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>160</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>184</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>178</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>117</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>76</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>94</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>107</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>150</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>156</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>158</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>159</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>160</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>176</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>115</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>94</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>156</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>159</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>160</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>172</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>45</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>76</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>94</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>115</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>107</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>157</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>158</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>159</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>160</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>115</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>76</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>45</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>87</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>157</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>158</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>160</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>187</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>89</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>94</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>110</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>45</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>115</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>157</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>158</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>159</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>160</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>187</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>94</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>110</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>117</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>185</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>156</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>157</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>158</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>160</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>176</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>107</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>110</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>115</v>
       </c>
@@ -10291,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>94</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>157</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>158</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>159</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>160</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>110</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>45</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>157</v>
       </c>
@@ -10575,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>158</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>159</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>160</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>184</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>110</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>94</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>117</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>185</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>156</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>158</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>159</v>
       </c>
@@ -10947,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>160</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>76</v>
       </c>
@@ -11003,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>155</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>115</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>110</v>
       </c>
@@ -11067,7 +11066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>156</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>157</v>
       </c>
@@ -11123,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>158</v>
       </c>
@@ -11151,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>160</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>184</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>94</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>115</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>110</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>45</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>157</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>158</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>159</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>160</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>173</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>45</v>
       </c>
@@ -11550,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>76</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>95</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>155</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>94</v>
       </c>
@@ -11648,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>107</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>156</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>157</v>
       </c>
@@ -11732,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>158</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>160</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>45</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>117</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>0</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>89</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>156</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>157</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>158</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>160</v>
       </c>
@@ -12026,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>173</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>176</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>45</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>115</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>76</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>117</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>156</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>157</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>158</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>159</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>94</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>115</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>156</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>157</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>158</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>160</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>172</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>76</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>94</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>115</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>0</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>156</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>158</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>159</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>160</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>162</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>45</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>0</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>115</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>117</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>156</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>158</v>
       </c>
@@ -13129,7 +13128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>159</v>
       </c>
@@ -13157,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>160</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>173</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>76</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>110</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>115</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>89</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>156</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>157</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>158</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>160</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>115</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>117</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>163</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>156</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>157</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>158</v>
       </c>
@@ -13675,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>160</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>110</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>175</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>176</v>
       </c>
@@ -13780,7 +13779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>45</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>115</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>117</v>
       </c>
@@ -13882,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>156</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>158</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>159</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>160</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>184</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>110</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>115</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>117</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>94</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>150</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>156</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>158</v>
       </c>
@@ -14236,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>159</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>160</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>176</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>0</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>94</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>117</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>115</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>157</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>158</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>159</v>
       </c>
@@ -14534,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>160</v>
       </c>
@@ -14562,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>0</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>89</v>
       </c>
@@ -14618,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>117</v>
       </c>
@@ -14639,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>110</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>94</v>
       </c>
@@ -14716,7 +14715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>156</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>158</v>
       </c>
@@ -14772,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>159</v>
       </c>
@@ -14800,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>160</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -14856,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>117</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>89</v>
       </c>
@@ -14905,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>45</v>
       </c>
@@ -14954,7 +14953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>155</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>157</v>
       </c>
@@ -15010,7 +15009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>158</v>
       </c>
@@ -15038,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>159</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>160</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>0</v>
       </c>
@@ -15122,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>117</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>185</v>
       </c>
@@ -15206,7 +15205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>157</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>158</v>
       </c>
@@ -15262,7 +15261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>159</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>160</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>45</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>115</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>163</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>156</v>
       </c>
@@ -15483,7 +15482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>157</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>158</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>159</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>163</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>173</v>
       </c>
@@ -15623,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>0</v>
       </c>
@@ -15651,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>110</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>117</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>94</v>
       </c>
@@ -15757,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>156</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>158</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>159</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>160</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>171</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>45</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>76</v>
       </c>
@@ -15952,7 +15951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>87</v>
       </c>
@@ -15980,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>94</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>115</v>
       </c>
@@ -16035,7 +16034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>156</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>157</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>158</v>
       </c>
@@ -16119,7 +16118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>159</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>160</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>173</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>45</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>76</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>107</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>156</v>
       </c>
@@ -16371,7 +16370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>158</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>159</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>160</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>45</v>
       </c>
@@ -16511,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>0</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>94</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>155</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>117</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>156</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>157</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>158</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>159</v>
       </c>
@@ -16757,7 +16756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>171</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>175</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>176</v>
       </c>
@@ -16841,7 +16840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>76</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>45</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>87</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>89</v>
       </c>
@@ -16978,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>156</v>
       </c>
@@ -17006,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>158</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>159</v>
       </c>
@@ -17062,7 +17061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>160</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>117</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>45</v>
       </c>
@@ -17139,7 +17138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>76</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>144</v>
       </c>
@@ -17223,7 +17222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>157</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>158</v>
       </c>
@@ -17279,7 +17278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>159</v>
       </c>
@@ -17307,7 +17306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>160</v>
       </c>
@@ -17335,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>184</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>177</v>
       </c>
@@ -17391,7 +17390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -17419,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>115</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>117</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>157</v>
       </c>
@@ -17531,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>158</v>
       </c>
@@ -17559,7 +17558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>159</v>
       </c>
@@ -17587,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>160</v>
       </c>
@@ -17615,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>173</v>
       </c>
@@ -17643,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>175</v>
       </c>
@@ -17671,7 +17670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>176</v>
       </c>
@@ -17699,7 +17698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>45</v>
       </c>
@@ -17727,7 +17726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>76</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>144</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>156</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>157</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>158</v>
       </c>
@@ -17867,7 +17866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>159</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>160</v>
       </c>
@@ -17979,7 +17978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>177</v>
       </c>
@@ -18007,7 +18006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>0</v>
       </c>
@@ -18035,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>45</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>117</v>
       </c>
@@ -18085,7 +18084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>89</v>
       </c>
@@ -18113,7 +18112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>107</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>156</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>157</v>
       </c>
@@ -18225,7 +18224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>159</v>
       </c>
@@ -18253,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>160</v>
       </c>
@@ -18281,7 +18280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>0</v>
       </c>
@@ -18309,7 +18308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>107</v>
       </c>
@@ -18337,7 +18336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>117</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
         <v>94</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>157</v>
       </c>
@@ -18442,7 +18441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>158</v>
       </c>
@@ -18470,7 +18469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>159</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>160</v>
       </c>
@@ -18526,7 +18525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>176</v>
       </c>
@@ -18554,7 +18553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>0</v>
       </c>
@@ -18582,7 +18581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>94</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>115</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>156</v>
       </c>
@@ -18694,7 +18693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>158</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>159</v>
       </c>
@@ -18750,7 +18749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>160</v>
       </c>
@@ -18778,7 +18777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>110</v>
       </c>
@@ -18806,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
         <v>45</v>
       </c>
@@ -18831,7 +18830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>117</v>
       </c>
@@ -18887,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>157</v>
       </c>
@@ -18915,7 +18914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>158</v>
       </c>
@@ -18943,7 +18942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>159</v>
       </c>
@@ -18971,7 +18970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>160</v>
       </c>
@@ -18999,7 +18998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>184</v>
       </c>
@@ -19027,7 +19026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>45</v>
       </c>
@@ -19055,7 +19054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>117</v>
       </c>
@@ -19111,7 +19110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>156</v>
       </c>
@@ -19139,7 +19138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>157</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>158</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>160</v>
       </c>
@@ -19223,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="s">
         <v>184</v>
       </c>
@@ -19251,7 +19250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>45</v>
       </c>
@@ -19279,7 +19278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B637" t="s">
         <v>117</v>
       </c>
@@ -19304,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>94</v>
       </c>
@@ -19360,7 +19359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>157</v>
       </c>
@@ -19388,7 +19387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>158</v>
       </c>
@@ -19416,7 +19415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>159</v>
       </c>
@@ -19444,7 +19443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>160</v>
       </c>
@@ -19500,7 +19499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>0</v>
       </c>
@@ -19528,7 +19527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>87</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>117</v>
       </c>
@@ -19612,7 +19611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>157</v>
       </c>
@@ -19640,7 +19639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>158</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>159</v>
       </c>
@@ -19696,7 +19695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>160</v>
       </c>
@@ -19724,7 +19723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>187</v>
       </c>
@@ -19752,7 +19751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>45</v>
       </c>
@@ -19780,7 +19779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>115</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>157</v>
       </c>
@@ -19864,7 +19863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>158</v>
       </c>
@@ -19892,7 +19891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>159</v>
       </c>
@@ -19920,7 +19919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>160</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>45</v>
       </c>
@@ -20004,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>107</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B664" t="s">
         <v>117</v>
       </c>
@@ -20057,7 +20056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>115</v>
       </c>
@@ -20085,7 +20084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>156</v>
       </c>
@@ -20113,7 +20112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>158</v>
       </c>
@@ -20141,7 +20140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>159</v>
       </c>
@@ -20169,7 +20168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>160</v>
       </c>
@@ -20225,7 +20224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>0</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>89</v>
       </c>
@@ -20309,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>157</v>
       </c>
@@ -20337,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>158</v>
       </c>
@@ -20365,7 +20364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>159</v>
       </c>
@@ -20393,7 +20392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>160</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>172</v>
       </c>
@@ -20449,7 +20448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>175</v>
       </c>
@@ -20477,7 +20476,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>176</v>
       </c>
@@ -20505,7 +20504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>76</v>
       </c>
@@ -20533,7 +20532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>0</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>87</v>
       </c>
@@ -20589,7 +20588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>95</v>
       </c>
@@ -20617,7 +20616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>115</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>156</v>
       </c>
@@ -20701,7 +20700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>157</v>
       </c>
@@ -20729,7 +20728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>159</v>
       </c>
@@ -20757,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>160</v>
       </c>
@@ -20785,7 +20784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>178</v>
       </c>
@@ -20813,7 +20812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B692" t="s">
         <v>115</v>
       </c>
@@ -20838,7 +20837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>0</v>
       </c>
@@ -20866,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>117</v>
       </c>
@@ -20894,7 +20893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>156</v>
       </c>
@@ -20922,7 +20921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>157</v>
       </c>
@@ -20950,7 +20949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>158</v>
       </c>
@@ -20978,7 +20977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>160</v>
       </c>
@@ -21006,7 +21005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>172</v>
       </c>
@@ -21034,7 +21033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>0</v>
       </c>
@@ -21062,7 +21061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
         <v>45</v>
       </c>
@@ -21083,7 +21082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>94</v>
       </c>
@@ -21111,7 +21110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>115</v>
       </c>
@@ -21167,7 +21166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>156</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>158</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>159</v>
       </c>
@@ -21251,7 +21250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>160</v>
       </c>
@@ -21279,7 +21278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>171</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>0</v>
       </c>
@@ -21335,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>117</v>
       </c>
@@ -21391,7 +21390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>156</v>
       </c>
@@ -21419,7 +21418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>157</v>
       </c>
@@ -21447,7 +21446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>158</v>
       </c>
@@ -21475,7 +21474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>159</v>
       </c>
@@ -21503,7 +21502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
         <v>184</v>
       </c>
@@ -21531,7 +21530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>176</v>
       </c>
@@ -21559,7 +21558,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>0</v>
       </c>
@@ -21587,7 +21586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>94</v>
       </c>
@@ -21643,7 +21642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>156</v>
       </c>
@@ -21671,7 +21670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>157</v>
       </c>
@@ -21699,7 +21698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>158</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>159</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>173</v>
       </c>
@@ -21811,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>45</v>
       </c>
@@ -21839,7 +21838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>115</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>185</v>
       </c>
@@ -21923,7 +21922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>156</v>
       </c>
@@ -21951,7 +21950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>157</v>
       </c>
@@ -21979,7 +21978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>158</v>
       </c>
@@ -22007,7 +22006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>160</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>45</v>
       </c>
@@ -22063,7 +22062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>76</v>
       </c>
@@ -22091,7 +22090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>89</v>
       </c>
@@ -22119,7 +22118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>156</v>
       </c>
@@ -22147,7 +22146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>157</v>
       </c>
@@ -22175,7 +22174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>158</v>
       </c>
@@ -22203,7 +22202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>160</v>
       </c>
@@ -22259,7 +22258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -22287,7 +22286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>94</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>95</v>
       </c>
@@ -22371,7 +22370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>185</v>
       </c>
@@ -22399,7 +22398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>156</v>
       </c>
@@ -22427,7 +22426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>157</v>
       </c>
@@ -22455,7 +22454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>158</v>
       </c>
@@ -22483,7 +22482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>159</v>
       </c>
@@ -22511,7 +22510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>45</v>
       </c>
@@ -22539,7 +22538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>115</v>
       </c>
@@ -22595,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>156</v>
       </c>
@@ -22623,7 +22622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>157</v>
       </c>
@@ -22651,7 +22650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>158</v>
       </c>
@@ -22679,7 +22678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>159</v>
       </c>
@@ -22707,7 +22706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" s="2" t="s">
         <v>184</v>
       </c>
@@ -22735,7 +22734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>175</v>
       </c>
@@ -22763,7 +22762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>176</v>
       </c>
@@ -22791,7 +22790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>0</v>
       </c>
@@ -22819,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>94</v>
       </c>
@@ -22847,7 +22846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>117</v>
       </c>
@@ -22903,7 +22902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>156</v>
       </c>
@@ -22931,7 +22930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>158</v>
       </c>
@@ -22959,7 +22958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>159</v>
       </c>
@@ -22987,7 +22986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>160</v>
       </c>
@@ -23015,7 +23014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>173</v>
       </c>
@@ -23043,7 +23042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>175</v>
       </c>
@@ -23071,7 +23070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>176</v>
       </c>
@@ -23099,7 +23098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>45</v>
       </c>
@@ -23127,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>94</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>156</v>
       </c>
@@ -23211,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>158</v>
       </c>
@@ -23239,7 +23238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>159</v>
       </c>
@@ -23267,7 +23266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>160</v>
       </c>
@@ -23295,7 +23294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>173</v>
       </c>
@@ -23323,7 +23322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>177</v>
       </c>
@@ -23351,7 +23350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>0</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>107</v>
       </c>
@@ -23407,7 +23406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>115</v>
       </c>
@@ -23435,7 +23434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>156</v>
       </c>
@@ -23463,7 +23462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>158</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>159</v>
       </c>
@@ -23519,7 +23518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>160</v>
       </c>
@@ -23575,7 +23574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>110</v>
       </c>
@@ -23603,7 +23602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>45</v>
       </c>
@@ -23631,7 +23630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>115</v>
       </c>
@@ -23659,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>157</v>
       </c>
@@ -23687,7 +23686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>158</v>
       </c>
@@ -23715,7 +23714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>159</v>
       </c>
@@ -23743,7 +23742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>160</v>
       </c>
@@ -23827,7 +23826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>0</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>115</v>
       </c>
@@ -23883,7 +23882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>117</v>
       </c>
@@ -23911,7 +23910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>156</v>
       </c>
@@ -23939,7 +23938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>157</v>
       </c>
@@ -23967,7 +23966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>158</v>
       </c>
@@ -23995,7 +23994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>160</v>
       </c>
@@ -24051,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>175</v>
       </c>
@@ -24079,7 +24078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>176</v>
       </c>
@@ -24107,7 +24106,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>0</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>94</v>
       </c>
@@ -24191,7 +24190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>156</v>
       </c>
@@ -24219,7 +24218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>158</v>
       </c>
@@ -24247,7 +24246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>159</v>
       </c>
@@ -24275,7 +24274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>160</v>
       </c>
@@ -24303,7 +24302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>172</v>
       </c>
@@ -24331,7 +24330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>0</v>
       </c>
@@ -24359,7 +24358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>87</v>
       </c>
@@ -24387,7 +24386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>94</v>
       </c>
@@ -24443,7 +24442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>185</v>
       </c>
@@ -24471,7 +24470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>157</v>
       </c>
@@ -24499,7 +24498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>158</v>
       </c>
@@ -24527,7 +24526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>159</v>
       </c>
@@ -24555,7 +24554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>160</v>
       </c>
@@ -24583,7 +24582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>0</v>
       </c>
@@ -24611,7 +24610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>89</v>
       </c>
@@ -24639,7 +24638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>117</v>
       </c>
@@ -24695,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>185</v>
       </c>
@@ -24723,7 +24722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>156</v>
       </c>
@@ -24751,7 +24750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>157</v>
       </c>
@@ -24779,7 +24778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>159</v>
       </c>
@@ -24807,7 +24806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>160</v>
       </c>
@@ -24835,7 +24834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>0</v>
       </c>
@@ -24863,7 +24862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>107</v>
       </c>
@@ -24891,7 +24890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>155</v>
       </c>
@@ -24919,7 +24918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>156</v>
       </c>
@@ -24947,7 +24946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>158</v>
       </c>
@@ -24975,7 +24974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>159</v>
       </c>
@@ -25003,7 +25002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>160</v>
       </c>
@@ -25059,7 +25058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>176</v>
       </c>
@@ -25087,7 +25086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>107</v>
       </c>
@@ -25115,7 +25114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>110</v>
       </c>
@@ -25143,7 +25142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>117</v>
       </c>
@@ -25199,7 +25198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>156</v>
       </c>
@@ -25227,7 +25226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>158</v>
       </c>
@@ -25255,7 +25254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>159</v>
       </c>
@@ -25283,7 +25282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>160</v>
       </c>
@@ -25311,7 +25310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>110</v>
       </c>
@@ -25339,7 +25338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>107</v>
       </c>
@@ -25367,7 +25366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>45</v>
       </c>
@@ -25395,7 +25394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>117</v>
       </c>
@@ -25451,7 +25450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>156</v>
       </c>
@@ -25479,7 +25478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>157</v>
       </c>
@@ -25507,7 +25506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>158</v>
       </c>
@@ -25535,7 +25534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>159</v>
       </c>
@@ -25591,7 +25590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>177</v>
       </c>
@@ -25619,7 +25618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>110</v>
       </c>
@@ -25647,7 +25646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>45</v>
       </c>
@@ -25675,7 +25674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>115</v>
       </c>
@@ -25703,7 +25702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>157</v>
       </c>
@@ -25731,7 +25730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>158</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>159</v>
       </c>
@@ -25787,7 +25786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>160</v>
       </c>
@@ -25815,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" s="2" t="s">
         <v>184</v>
       </c>
@@ -25871,7 +25870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>176</v>
       </c>
@@ -25899,7 +25898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>0</v>
       </c>
@@ -25955,7 +25954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>144</v>
       </c>
@@ -25983,7 +25982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>156</v>
       </c>
@@ -26011,7 +26010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>158</v>
       </c>
@@ -26039,7 +26038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>159</v>
       </c>
@@ -26067,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>160</v>
       </c>
@@ -26095,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>172</v>
       </c>
@@ -26123,7 +26122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>177</v>
       </c>
@@ -26151,7 +26150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>0</v>
       </c>
@@ -26179,7 +26178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>117</v>
       </c>
@@ -26235,7 +26234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>185</v>
       </c>
@@ -26263,7 +26262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>155</v>
       </c>
@@ -26291,7 +26290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>156</v>
       </c>
@@ -26319,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>158</v>
       </c>
@@ -26347,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>159</v>
       </c>
@@ -26375,7 +26374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>160</v>
       </c>
@@ -26403,7 +26402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>177</v>
       </c>
@@ -26433,11 +26432,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I892" xr:uid="{1DDB85B7-6B3D-0A4C-BFF3-CA2FF8D2CAF0}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="MAT"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I883">
       <sortCondition ref="C1:C892"/>
     </sortState>
@@ -30736,7 +30730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9514B0BF-B51B-2446-AC8A-D06FAE1D5B91}">
   <dimension ref="A1:G893"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
